--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,68%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>1,84; 10,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>7,52; 21,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>8,36; 21,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>7,06; 18,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>4,62; 14,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>10,75; 25,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>5,95; 17,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>14,26; 23,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>3,76; 10,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>10,87; 20,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>8,84; 17,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>12,22; 20,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,31; 8,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>9,3; 14,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,71; 14,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>12,05; 17,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>6,21; 10,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>10,49; 16,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>11,41; 17,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,02; 17,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,76; 8,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>10,73; 14,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,81; 14,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>13,13; 16,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,53; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,26; 12,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,8; 11,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,08; 13,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,29; 11,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>9,76; 13,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>10,0; 14,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,87; 15,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,3; 8,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,4; 12,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,4; 12,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>10,95; 13,54</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,96; 7,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,05; 11,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>7,56; 11,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,4; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,69; 9,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>10,33; 15,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,06; 10,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>11,2; 45,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,16; 7,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>9,31; 12,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,29; 10,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,63; 37,54</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,61; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,41; 12,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,97; 9,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,91; 14,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,3; 8,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,77; 13,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,83; 12,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>13,32; 16,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,35; 7,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,59; 12,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,9; 10,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>12,72; 15,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,02; 6,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,3; 11,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,36; 10,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,35; 13,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,0; 8,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,21; 13,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,02; 12,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,8; 24,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,31; 7,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>10,59; 12,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,47; 10,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,03; 20,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,08</t>
+          <t>4,28; 7,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 21,08</t>
+          <t>9,84; 15,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 21,44</t>
+          <t>9,32; 14,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 18,45</t>
+          <t>11,47; 16,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,29</t>
+          <t>6,32; 10,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 25,82</t>
+          <t>11,25; 16,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 17,82</t>
+          <t>11,14; 16,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 23,44</t>
+          <t>13,68; 17,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,44</t>
+          <t>5,94; 8,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 20,55</t>
+          <t>11,14; 14,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,32</t>
+          <t>10,88; 14,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 20,09</t>
+          <t>13,3; 16,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,12</t>
+          <t>4,53; 7,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,97</t>
+          <t>8,26; 12,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 14,06</t>
+          <t>7,8; 11,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,77</t>
+          <t>4,79; 11,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,82</t>
+          <t>7,29; 11,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 16,07</t>
+          <t>9,76; 13,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 17,26</t>
+          <t>10,0; 14,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,26</t>
+          <t>12,0; 15,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,83</t>
+          <t>6,3; 8,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 14,69</t>
+          <t>9,4; 12,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,98</t>
+          <t>9,4; 12,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 16,42</t>
+          <t>7,32; 12,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>22,8%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>3,96; 7,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,07</t>
+          <t>7,05; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,4</t>
+          <t>7,56; 11,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,23</t>
+          <t>10,15; 14,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,01</t>
+          <t>5,69; 9,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,83</t>
+          <t>10,33; 15,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,4</t>
+          <t>6,06; 10,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,14</t>
+          <t>10,51; 59,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,73</t>
+          <t>5,16; 7,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,29</t>
+          <t>9,31; 12,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,23</t>
+          <t>7,29; 10,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 13,54</t>
+          <t>11,18; 50,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,33</t>
+          <t>4,61; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,7</t>
+          <t>8,41; 12,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,81</t>
+          <t>5,97; 9,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 15,11</t>
+          <t>10,64; 14,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,41</t>
+          <t>5,3; 8,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,64</t>
+          <t>9,77; 13,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,07</t>
+          <t>8,83; 12,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,2; 45,61</t>
+          <t>11,56; 16,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,88</t>
+          <t>5,35; 7,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,76</t>
+          <t>9,59; 12,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,33</t>
+          <t>7,9; 10,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 37,54</t>
+          <t>11,84; 14,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,47</t>
+          <t>5,02; 6,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 12,4</t>
+          <t>9,3; 11,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,23</t>
+          <t>8,36; 10,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,78</t>
+          <t>8,85; 12,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,56</t>
+          <t>7,0; 8,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 13,95</t>
+          <t>11,21; 13,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,95</t>
+          <t>10,02; 12,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,32; 16,79</t>
+          <t>13,41; 32,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,51</t>
+          <t>6,31; 7,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 12,46</t>
+          <t>10,59; 12,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,64</t>
+          <t>9,47; 10,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,22</t>
+          <t>12,14; 25,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,29%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,43%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>12,28%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>11,3%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,02; 6,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,3; 11,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 10,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>11,35; 13,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 8,81</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>11,21; 13,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,02; 12,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13,8; 24,78</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 7,46</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 12,07</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>9,47; 10,99</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 20,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,78</t>
+          <t>4,32; 7,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,02</t>
+          <t>9,56; 14,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,31</t>
+          <t>9,53; 14,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,54</t>
+          <t>11,4; 16,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,44</t>
+          <t>6,67; 10,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,49</t>
+          <t>11,27; 16,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 16,61</t>
+          <t>11,22; 16,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 17,43</t>
+          <t>13,82; 17,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,68</t>
+          <t>5,86; 8,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,79</t>
+          <t>11,17; 15,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,5</t>
+          <t>11,04; 14,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,3; 16,42</t>
+          <t>13,12; 16,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>4,51; 7,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,07</t>
+          <t>8,4; 12,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,4</t>
+          <t>7,86; 11,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,98</t>
+          <t>5,04; 12,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,01</t>
+          <t>7,34; 11,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,83</t>
+          <t>9,78; 13,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,4</t>
+          <t>10,03; 14,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 15,24</t>
+          <t>11,94; 15,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,73</t>
+          <t>6,3; 8,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,29</t>
+          <t>9,44; 12,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,23</t>
+          <t>9,43; 12,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,96</t>
+          <t>6,86; 12,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,33</t>
+          <t>3,96; 7,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,7</t>
+          <t>7,22; 11,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,81</t>
+          <t>7,58; 12,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,69</t>
+          <t>9,99; 14,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,41</t>
+          <t>5,65; 9,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,64</t>
+          <t>10,35; 15,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,07</t>
+          <t>5,94; 10,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 59,97</t>
+          <t>10,66; 63,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,88</t>
+          <t>5,28; 7,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,76</t>
+          <t>9,46; 12,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,33</t>
+          <t>7,2; 10,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 50,2</t>
+          <t>11,18; 49,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,47</t>
+          <t>4,8; 7,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 12,4</t>
+          <t>8,29; 12,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,23</t>
+          <t>5,97; 9,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 14,43</t>
+          <t>10,55; 14,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,56</t>
+          <t>5,35; 8,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 13,95</t>
+          <t>9,69; 13,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,95</t>
+          <t>9,01; 12,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,15</t>
+          <t>11,54; 16,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,51</t>
+          <t>5,38; 7,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 12,46</t>
+          <t>9,72; 12,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,64</t>
+          <t>7,91; 10,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 14,68</t>
+          <t>11,85; 14,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 6,61</t>
+          <t>5,02; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,49</t>
+          <t>9,12; 11,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,35</t>
+          <t>8,36; 10,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,8</t>
+          <t>8,97; 12,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,81</t>
+          <t>7,05; 8,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,41</t>
+          <t>11,16; 13,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,14</t>
+          <t>9,91; 12,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 32,58</t>
+          <t>13,43; 34,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,46</t>
+          <t>6,21; 7,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,07</t>
+          <t>10,54; 12,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,47; 10,99</t>
+          <t>9,44; 10,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,25</t>
+          <t>12,29; 24,35</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40796</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>84134</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>78585</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87809</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96055</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91585</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>105465</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98330</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>180189</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>170170</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>193274</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29906; 55143</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66983; 103732</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64317; 95546</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>72471; 104626</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45941; 74223</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78253; 115691</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75463; 111066</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93383; 118569</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80898; 118942</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>155768; 210675</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>148839; 195974</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>172055; 215645</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56233</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>102230</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>97710</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>107629</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87992</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118709</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>125208</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>130610</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>144225</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>220940</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>222918</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>238239</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43375; 72322</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>85533; 126360</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80341; 119578</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60062; 144430</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>71072; 107987</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100368; 141828</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104634; 148456</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>114355; 146664</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>121616; 170108</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193025; 251965</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>194737; 253733</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147574; 278688</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37301</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72173</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>85896</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50634</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>98834</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61576</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>287176</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87934</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>167618</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>133749</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>373072</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26866; 49679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54631; 87745</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57575; 91740</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70291; 104259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38628; 65231</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80311; 119869</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46637; 81339</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>99413; 592006</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71950; 106580</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145073; 196950</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>111168; 158896</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>183007; 806016</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56320</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>96839</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>114604</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70602</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>121969</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>111582</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>155156</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>126922</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>218809</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>181676</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>269761</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45186; 69603</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78373; 119358</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>56003; 87079</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>97821; 134116</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55553; 88329</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>101618; 142552</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93995; 132924</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>125912; 176684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106526; 149513</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>193787; 250744</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>156692; 208851</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>239110; 296801</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>190649</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>351988</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>318563</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>395938</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>266762</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>435567</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>389951</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>678408</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>457412</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>787555</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>708514</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1074346</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>164412; 217366</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>311936; 386535</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>283875; 351976</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>310253; 443635</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>238111; 297241</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>395711; 474950</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>351406; 430726</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>491218; 1258568</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>413344; 500464</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>734156; 840868</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>655378; 761595</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>874918; 1732706</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>